--- a/DirectX12/学习进度.xlsx
+++ b/DirectX12/学习进度.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -517,7 +517,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -575,10 +575,10 @@
       <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="1">

--- a/DirectX12/学习进度.xlsx
+++ b/DirectX12/学习进度.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="31">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,14 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>记忆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>API</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>实践</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,23 +110,27 @@
     <t>角色动画</t>
   </si>
   <si>
-    <t>总结</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>整理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读与理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读与记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,25 +156,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.5"/>
-      <color theme="9"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -214,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -226,12 +204,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -514,23 +486,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="4" width="35" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,570 +510,504 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="1">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="1">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="1">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="1">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="1">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="1">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="1">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="1">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="1">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="1">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="1">
+        <v>17</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="1">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="1">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="1">
+        <v>21</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="1">
+        <v>22</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="1">
         <v>31</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="1">
+        <v>24</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="1">
+        <v>25</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="1">
+        <v>26</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="1">
         <v>25</v>
       </c>
     </row>

--- a/DirectX12/学习进度.xlsx
+++ b/DirectX12/学习进度.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="46">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>向量代数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,6 +128,59 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(天)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.26/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.9/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows编程入门</t>
+  </si>
+  <si>
+    <t>附录A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附录B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附录C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级着色器语言参考</t>
+  </si>
+  <si>
+    <t>解析几何学选讲</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完完完</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -201,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -216,6 +265,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -498,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -513,7 +568,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -521,10 +576,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>24</v>
@@ -533,70 +588,106 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F2" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="1">
+        <v>742</v>
+      </c>
+      <c r="J2" s="7">
+        <v>44232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F3" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="1">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="4">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -613,10 +704,10 @@
         <v>4</v>
       </c>
       <c r="F5" s="4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -636,7 +727,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -656,7 +747,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -676,7 +767,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -696,7 +787,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -716,7 +807,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -736,7 +827,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -756,27 +847,30 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G13" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -796,7 +890,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -816,7 +910,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -853,7 +947,7 @@
         <v>4</v>
       </c>
       <c r="F17" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -994,6 +1088,66 @@
       </c>
       <c r="F24" s="4">
         <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
